--- a/output/fit_clients/fit_round_361.xlsx
+++ b/output/fit_clients/fit_round_361.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1746738944.829777</v>
+        <v>2095030684.283231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1141783831390647</v>
+        <v>0.08449718949829128</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03420681065234964</v>
+        <v>0.04199958834188636</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>873369434.0515006</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1861907976.554989</v>
+        <v>1802088619.507605</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1822953742023411</v>
+        <v>0.1665063429367506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03258507282835526</v>
+        <v>0.04236853104323142</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>930954006.956684</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4587880350.847644</v>
+        <v>3340340979.842243</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1502201768150443</v>
+        <v>0.1541150773894268</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03582506609333164</v>
+        <v>0.0313277404817826</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2293940231.260969</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3310619948.628645</v>
+        <v>3134512632.3676</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0965127109827357</v>
+        <v>0.08861590873940242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.039884985215942</v>
+        <v>0.04812967642896824</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>134</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1655310023.631567</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1966188716.745603</v>
+        <v>2542366377.245019</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1327970270152473</v>
+        <v>0.1191474856057563</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05188054170402227</v>
+        <v>0.05299887977049979</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>983094391.6356764</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2624062231.814308</v>
+        <v>2143247573.495222</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06275390613137746</v>
+        <v>0.08999905834140953</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03265381456370432</v>
+        <v>0.04266838625561457</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>112</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1312031117.007127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3451355262.631014</v>
+        <v>3589636398.789589</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1364174590297095</v>
+        <v>0.1900714190407544</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02300791560674606</v>
+        <v>0.02207089325082637</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>115</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1725677734.979402</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1487514539.978773</v>
+        <v>2285355963.402061</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1813420521360799</v>
+        <v>0.1527289696179466</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02336533679716927</v>
+        <v>0.03594633705521871</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>743757367.7183274</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3978780250.085705</v>
+        <v>5581732967.71407</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1495214124694856</v>
+        <v>0.1907865619933893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03695666755374577</v>
+        <v>0.03567441566156604</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>152</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1989390145.285415</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2599257494.026268</v>
+        <v>3219439142.258492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1893182603543189</v>
+        <v>0.1618159235668203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04525353283488439</v>
+        <v>0.04761837534757173</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>149</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1299628661.993306</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3177913280.51666</v>
+        <v>2263271499.753303</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1592600739752744</v>
+        <v>0.1821306236941095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04256256310343725</v>
+        <v>0.05357257560080439</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>123</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1588956674.583757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4750068157.442496</v>
+        <v>5075253501.301562</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08678846450452826</v>
+        <v>0.07111709432684309</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01963018510396389</v>
+        <v>0.01950351716383271</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>121</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2375034095.565536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3617894695.677187</v>
+        <v>3047940005.190102</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1846706133524297</v>
+        <v>0.1461330210727974</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02713649488190809</v>
+        <v>0.03335062093353145</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1808947337.539498</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1377503157.828136</v>
+        <v>1150818736.133121</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0905154173137489</v>
+        <v>0.08664157410371021</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04057074158261088</v>
+        <v>0.03614020894067926</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>688751636.6524893</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2312350200.626698</v>
+        <v>2813760147.280722</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1142882868627399</v>
+        <v>0.07197153319290032</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03253033234602747</v>
+        <v>0.04757032887685757</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1156175147.899872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4372179809.868648</v>
+        <v>4287190127.840324</v>
       </c>
       <c r="F17" t="n">
-        <v>0.140837790047739</v>
+        <v>0.130156107923189</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03402515145939136</v>
+        <v>0.03405710683124826</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>106</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2186089921.166906</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3143449067.942292</v>
+        <v>3406184483.320919</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1605045563474276</v>
+        <v>0.1550172283052761</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02585928235899202</v>
+        <v>0.03190925138089337</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>118</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1571724553.856871</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>847116899.315129</v>
+        <v>862781738.7127094</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1245156215208614</v>
+        <v>0.179526361831502</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02054793030293535</v>
+        <v>0.02639365586197101</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>423558441.696923</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2007711833.879742</v>
+        <v>2299310053.414115</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1394556747307009</v>
+        <v>0.1381532524902447</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02798329278031405</v>
+        <v>0.02880836401139563</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1003855942.474495</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2483942111.460005</v>
+        <v>2568431689.66848</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06856875821280424</v>
+        <v>0.08965081865636172</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03190512477355559</v>
+        <v>0.0325426430941162</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1241971045.402656</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3567739466.714983</v>
+        <v>3643908768.784561</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09977453476226045</v>
+        <v>0.1305833625327457</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0354988914899814</v>
+        <v>0.05342654512815868</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>99</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1783869760.904101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1072365063.081817</v>
+        <v>1379576194.27778</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1313488510840124</v>
+        <v>0.1760771154489768</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03505749744971889</v>
+        <v>0.03709278334085316</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>536182589.5372708</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2844679444.339499</v>
+        <v>3021662273.889354</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09213988565209469</v>
+        <v>0.1200836858397253</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02346400884247511</v>
+        <v>0.03338992970108701</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>106</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1422339767.8603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1114967752.594696</v>
+        <v>1123408366.622744</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1196395006857341</v>
+        <v>0.0918110203108833</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02565351877187154</v>
+        <v>0.02682658991272202</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>557483913.8591034</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1431508155.701252</v>
+        <v>1365846765.150706</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09605657369608273</v>
+        <v>0.09571610754773602</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02990731721989191</v>
+        <v>0.02776033196739899</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>715754155.5391483</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4293523878.088215</v>
+        <v>3360109757.529855</v>
       </c>
       <c r="F27" t="n">
-        <v>0.142174645290341</v>
+        <v>0.1141963993149684</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02549729936344178</v>
+        <v>0.02084081910885228</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2146761934.603832</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2906348428.535986</v>
+        <v>3044196104.372067</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1163305951830602</v>
+        <v>0.1493987242179077</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04364459473324354</v>
+        <v>0.03431834660061792</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>117</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1453174217.356612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4432982335.868165</v>
+        <v>5216241805.693491</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1397279665008296</v>
+        <v>0.1373508041375611</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02988397744655143</v>
+        <v>0.04453826627225937</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>159</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2216491154.773335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1648448795.410771</v>
+        <v>2185628250.942317</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1302699393752932</v>
+        <v>0.09028636532533371</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03994754227081149</v>
+        <v>0.03708581337037518</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>824224395.1360891</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1012423713.861346</v>
+        <v>1288580913.444865</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1065885984625981</v>
+        <v>0.07181886915350624</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03425629110314437</v>
+        <v>0.04492801695866893</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>506211852.5558632</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1149106977.135868</v>
+        <v>1185658224.725578</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1077914174336892</v>
+        <v>0.1043142919776931</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02978735239685934</v>
+        <v>0.0292164440156427</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>574553484.2510754</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2123856489.135773</v>
+        <v>2295029625.877805</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1306870087524516</v>
+        <v>0.1953629341143384</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05614546088697985</v>
+        <v>0.04940974398649164</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>108</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1061928314.820991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1433724017.510647</v>
+        <v>1331814525.40762</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1116471926565002</v>
+        <v>0.09970874764904879</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02175782352711942</v>
+        <v>0.02586289206098187</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>716861975.5362347</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1276925576.52479</v>
+        <v>1318540468.896984</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07965118648236988</v>
+        <v>0.1047981699892157</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04321844162886312</v>
+        <v>0.04126250524934087</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>638462746.1319535</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2251898545.213256</v>
+        <v>2077410645.726808</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1279755282611539</v>
+        <v>0.115045380556027</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02726438808647244</v>
+        <v>0.02132627451009422</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1125949314.483655</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2846936078.16907</v>
+        <v>2937187578.714921</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06853284515661823</v>
+        <v>0.1079237446905004</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03687847670546049</v>
+        <v>0.03513951570959885</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>96</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1423468182.910615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1396481470.595384</v>
+        <v>1429288156.434457</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07503746640463634</v>
+        <v>0.09755598677573847</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03342103575715773</v>
+        <v>0.0371630705585957</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>698240799.1925631</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1726265976.447219</v>
+        <v>2117490717.312054</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1916171608925637</v>
+        <v>0.167704972492474</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02564671963181582</v>
+        <v>0.02323503429164392</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>863133024.3290644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1419231392.367023</v>
+        <v>1709698409.695713</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1173445956271461</v>
+        <v>0.1165240338943081</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05936923760123634</v>
+        <v>0.0525259154572374</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>709615682.5954556</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2313181408.188588</v>
+        <v>1903327847.542418</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1525971161580219</v>
+        <v>0.1323166675642577</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03871661059924165</v>
+        <v>0.03894578882284658</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>92</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1156590747.715404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3364184604.707072</v>
+        <v>3299497305.578947</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08329752198148083</v>
+        <v>0.1140577888000958</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04508931060126248</v>
+        <v>0.03226880369522872</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>118</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1682092287.858068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1898762814.601579</v>
+        <v>2241080472.17306</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1550543774264317</v>
+        <v>0.1533338112257656</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02436379060867454</v>
+        <v>0.01589194921861312</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>128</v>
-      </c>
-      <c r="J43" t="n">
-        <v>949381516.4197859</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2109726664.274091</v>
+        <v>1791364816.132616</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06834145449362948</v>
+        <v>0.06950910056215744</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03663957252080902</v>
+        <v>0.02967778623096451</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1054863460.375741</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1566903615.178472</v>
+        <v>2469194861.00645</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1467357262500311</v>
+        <v>0.1621066897544546</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05184534457101252</v>
+        <v>0.04258249565085011</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>783451754.8512832</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4634988875.825192</v>
+        <v>4742733617.060844</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1169481047622256</v>
+        <v>0.1785691650250785</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0548818557130974</v>
+        <v>0.04125907846891279</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>129</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2317494443.851225</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4616376537.910737</v>
+        <v>5142088403.135442</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1964156588816953</v>
+        <v>0.1726691830425064</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05665040398615007</v>
+        <v>0.03937190910545342</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>97</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2308188303.007077</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3775313914.533015</v>
+        <v>3517606916.596851</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07556420431054658</v>
+        <v>0.09114428978056269</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0332066193019384</v>
+        <v>0.0249017206899309</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1887657004.706287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1541739568.929677</v>
+        <v>1948243573.044106</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1492407218892742</v>
+        <v>0.1455592901239323</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04120744917193209</v>
+        <v>0.02838240341557867</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>770869810.0167505</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4190343354.848693</v>
+        <v>2869336006.452913</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1538227939054056</v>
+        <v>0.1450598297242618</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04925831189326353</v>
+        <v>0.05156620199340548</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>123</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2095171652.56727</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1424456759.675137</v>
+        <v>1290624753.739398</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1797312465581649</v>
+        <v>0.1716363786719148</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05319646024251361</v>
+        <v>0.03704015371188129</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>712228395.0253289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4436244620.192818</v>
+        <v>4657690429.271374</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0987657435727628</v>
+        <v>0.106698769101782</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0498333007828172</v>
+        <v>0.0389297691958204</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>149</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2218122340.911182</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2863462153.873875</v>
+        <v>3496761668.034275</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2010798254353788</v>
+        <v>0.1635929912021184</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02700043874300745</v>
+        <v>0.02276007910864834</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1431731118.842205</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4479494604.63033</v>
+        <v>4924565346.786737</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1462264273144968</v>
+        <v>0.1576858111874377</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0488696928828624</v>
+        <v>0.04031557485000675</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>118</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2239747404.031949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4387860895.113475</v>
+        <v>4292969602.234905</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1806180424880904</v>
+        <v>0.1572818081679836</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0299259343630363</v>
+        <v>0.01963185550662963</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>95</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2193930439.579801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1270524500.599484</v>
+        <v>1443133424.687609</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1437274260811188</v>
+        <v>0.1640535506034048</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05829238013018206</v>
+        <v>0.05333146948278655</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>635262326.5789996</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3613364623.41847</v>
+        <v>3051071691.291713</v>
       </c>
       <c r="F57" t="n">
-        <v>0.123850327818196</v>
+        <v>0.1315990719489888</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02530013134121271</v>
+        <v>0.02126125802110409</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>115</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1806682367.623281</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1774946525.859633</v>
+        <v>1786778630.463688</v>
       </c>
       <c r="F58" t="n">
-        <v>0.134756509839688</v>
+        <v>0.1700286974759427</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03974628451743096</v>
+        <v>0.03136466467970737</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>887473268.9958954</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4205599368.884771</v>
+        <v>4374114011.446719</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1137612542529687</v>
+        <v>0.08968375675354082</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04001818788867754</v>
+        <v>0.04939315210367008</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2102799650.466635</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2415185454.114756</v>
+        <v>2654724996.54314</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1364839087434637</v>
+        <v>0.1945530468011879</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02553461979561729</v>
+        <v>0.02012862229589266</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>112</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1207592736.076066</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3005798015.876386</v>
+        <v>3132274866.107141</v>
       </c>
       <c r="F61" t="n">
-        <v>0.147103684661257</v>
+        <v>0.1702750711140474</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02545406225474655</v>
+        <v>0.01996804924139935</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>125</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1502898987.867616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1509667922.511607</v>
+        <v>1529822150.535561</v>
       </c>
       <c r="F62" t="n">
-        <v>0.178814414212852</v>
+        <v>0.1346669547326005</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03583976337569137</v>
+        <v>0.04963648804937397</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>754833945.7933003</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4171134597.604883</v>
+        <v>4044681584.652383</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09636712973735648</v>
+        <v>0.09833288696456571</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04729069131150723</v>
+        <v>0.0292150729568271</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2085567353.586677</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3952665760.181253</v>
+        <v>4245627049.929982</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1877008633750728</v>
+        <v>0.1802672561229176</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03340325318947475</v>
+        <v>0.02995881205576835</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>112</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1976332912.623842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5879824970.177632</v>
+        <v>5565670182.9852</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1245189169049361</v>
+        <v>0.1501935838203516</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02946868343786775</v>
+        <v>0.02247239489913934</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>129</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2939912391.50373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4051399555.117188</v>
+        <v>5280616582.711987</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1114426783716204</v>
+        <v>0.1282301652002877</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04142414300756773</v>
+        <v>0.0501812465468965</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>106</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2025699753.906935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3270712430.419287</v>
+        <v>2898625270.721877</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07137224335240021</v>
+        <v>0.09119204068136648</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04114174571371386</v>
+        <v>0.03199449494963445</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>116</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1635356210.530499</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5565735839.153046</v>
+        <v>5508010228.833065</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0964614040108418</v>
+        <v>0.1574366231673938</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03237419019113449</v>
+        <v>0.04101372814760353</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>115</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2782868010.254218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2429793541.967119</v>
+        <v>2044249627.683381</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1332258648937657</v>
+        <v>0.154159196227656</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05848817614348981</v>
+        <v>0.04683636849081071</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1214896831.519654</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3339032932.200299</v>
+        <v>2564772142.753257</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09700084715863524</v>
+        <v>0.07818837184033291</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03461149355226292</v>
+        <v>0.04574903655974618</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>103</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1669516465.174187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3577471803.741652</v>
+        <v>4857260674.412107</v>
       </c>
       <c r="F71" t="n">
-        <v>0.166452007664124</v>
+        <v>0.1384770867559008</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02536698549891368</v>
+        <v>0.02712781540075542</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>131</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1788735901.365938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1615601226.375836</v>
+        <v>1445452252.908477</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07020249165454827</v>
+        <v>0.08983578300056887</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04475603834885161</v>
+        <v>0.04616256250991241</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>807800621.5545846</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2762399047.824989</v>
+        <v>2416716790.424167</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09353238740304848</v>
+        <v>0.09977118217863701</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05161585544132192</v>
+        <v>0.0385894391235029</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>136</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1381199541.6722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3989495232.918856</v>
+        <v>2698061456.648697</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1771010004347522</v>
+        <v>0.1728302982957389</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02298552295191083</v>
+        <v>0.02889716571189194</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>123</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1994747596.334636</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2266978904.432185</v>
+        <v>2377047684.677924</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1229760406247804</v>
+        <v>0.1173770209751602</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02605229181880271</v>
+        <v>0.03395143415163839</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1133489391.381135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4459779352.623492</v>
+        <v>5132693842.93296</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1082304463349878</v>
+        <v>0.1123858528491128</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02278003671501947</v>
+        <v>0.03038332870320727</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>88</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2229889680.3185</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1940750585.723015</v>
+        <v>1489046329.546378</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1253475717776323</v>
+        <v>0.1354568256687396</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01957717220108583</v>
+        <v>0.02930331869922518</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>970375345.6116784</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3246040629.190806</v>
+        <v>3424038706.328599</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1358926122654808</v>
+        <v>0.1318565097368588</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03951223465003812</v>
+        <v>0.03743980518474019</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>126</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1623020334.303599</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1649023128.443852</v>
+        <v>1727531509.382877</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1310007917599271</v>
+        <v>0.169629219904204</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03782041973404213</v>
+        <v>0.04047918278202697</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>824511624.5246863</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4008783058.313324</v>
+        <v>5205583215.352964</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1060168494109787</v>
+        <v>0.1117635370123414</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02634778434217326</v>
+        <v>0.02932918953268845</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2004391529.064984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3650495466.559012</v>
+        <v>3839365554.037355</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09681949698142721</v>
+        <v>0.09750028557804152</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02565287584938257</v>
+        <v>0.0323760909893788</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>80</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1825247683.535859</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4469264925.024101</v>
+        <v>5146897797.981796</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1767595512109038</v>
+        <v>0.173740393822968</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02774204564033659</v>
+        <v>0.01861588820097464</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>126</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2234632476.06776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2093355249.300982</v>
+        <v>2093599442.868208</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1235900180081875</v>
+        <v>0.1520621589150331</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04024683077830544</v>
+        <v>0.0442149751007196</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1046677621.619294</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2569961663.267795</v>
+        <v>2581533199.917978</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08319385095326702</v>
+        <v>0.1115746668180433</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04414510520450508</v>
+        <v>0.04048374203278641</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1284980753.167</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3460108830.271841</v>
+        <v>3188691054.491402</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1118018143482287</v>
+        <v>0.1624155225768689</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05496139983642397</v>
+        <v>0.04981807162302353</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>136</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1730054526.121034</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2333162638.098175</v>
+        <v>2578615928.102962</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1053419867386322</v>
+        <v>0.1190842979538261</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02416715387214695</v>
+        <v>0.01777816406049154</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>48</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1166581393.000893</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1342707104.006153</v>
+        <v>1297177128.193192</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1692671741521612</v>
+        <v>0.1793840795787062</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03689428194774907</v>
+        <v>0.04150850732842218</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>671353644.1637847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2311574736.087907</v>
+        <v>3115399382.47287</v>
       </c>
       <c r="F88" t="n">
-        <v>0.119150141336902</v>
+        <v>0.1100065321723128</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02615010808759378</v>
+        <v>0.037195192240353</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>144</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1155787330.457936</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2623038176.359677</v>
+        <v>2375966568.846409</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1135547773519855</v>
+        <v>0.1285683089933324</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03651991994151842</v>
+        <v>0.02989046714381735</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>122</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1311519153.932029</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1562184952.022897</v>
+        <v>1500151177.705348</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1120901465923628</v>
+        <v>0.1381286174405769</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05092164412696498</v>
+        <v>0.03907319021342599</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>781092466.1670805</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1415628387.818651</v>
+        <v>1942540141.909515</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1380811565054581</v>
+        <v>0.1629268892547747</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03756508649617826</v>
+        <v>0.05295277566208292</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>707814244.0667239</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2156697434.958663</v>
+        <v>2000169647.231419</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1054725494098929</v>
+        <v>0.09490561921349784</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0373968601809094</v>
+        <v>0.03808847010745382</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>99</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1078348675.513388</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4914106051.699822</v>
+        <v>4013199061.861996</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1082932407533121</v>
+        <v>0.08720923352492395</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05049964341856363</v>
+        <v>0.0536008993370073</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2457052967.349081</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2107838285.056551</v>
+        <v>1824413793.118343</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1152580375736391</v>
+        <v>0.1122738445202073</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03921298684271585</v>
+        <v>0.02861835319329282</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1053919154.935092</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2637281392.990206</v>
+        <v>2082301178.967658</v>
       </c>
       <c r="F95" t="n">
-        <v>0.104500062190527</v>
+        <v>0.09636572236063896</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04493577374009848</v>
+        <v>0.04496462586742948</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1318640722.604401</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1827246441.950626</v>
+        <v>1926833526.085158</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1283715376942852</v>
+        <v>0.138007115760629</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04037038585356052</v>
+        <v>0.04094988436297089</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>913623226.4185382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3247067321.037817</v>
+        <v>4046412834.27667</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1462640866193</v>
+        <v>0.1600589290319112</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02564990576097601</v>
+        <v>0.02467442210028825</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>116</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1623533656.350875</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3045929318.209719</v>
+        <v>3252848067.337692</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1071391742327971</v>
+        <v>0.103384217758462</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03213046305330686</v>
+        <v>0.03091695971651297</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1522964646.91602</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2326188780.222762</v>
+        <v>2231057280.916186</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1306619180689131</v>
+        <v>0.1026552895273757</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03411546557528818</v>
+        <v>0.02968288139486809</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>113</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1163094327.301823</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4743948593.145582</v>
+        <v>3009502488.299165</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1352408973412576</v>
+        <v>0.1539792888257067</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02790256179335854</v>
+        <v>0.02709643536849641</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2371974426.634909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2955916507.368356</v>
+        <v>2492915743.16651</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2204183322852368</v>
+        <v>0.1923580994696259</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05526254114196</v>
+        <v>0.04361847942292484</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>147</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1477958336.910981</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_361.xlsx
+++ b/output/fit_clients/fit_round_361.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2095030684.283231</v>
+        <v>1749867261.34184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08449718949829128</v>
+        <v>0.1057465765540213</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04199958834188636</v>
+        <v>0.0291418430055374</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1802088619.507605</v>
+        <v>1920933520.731786</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1665063429367506</v>
+        <v>0.1434840081762166</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04236853104323142</v>
+        <v>0.04842620814733659</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3340340979.842243</v>
+        <v>3976212808.52418</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1541150773894268</v>
+        <v>0.1255807071770792</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0313277404817826</v>
+        <v>0.03254264195887743</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3134512632.3676</v>
+        <v>3780410886.628715</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08861590873940242</v>
+        <v>0.08708514609785253</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04812967642896824</v>
+        <v>0.04669865016859596</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2542366377.245019</v>
+        <v>1929625621.844653</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1191474856057563</v>
+        <v>0.148846988698705</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05299887977049979</v>
+        <v>0.05553224387919312</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2143247573.495222</v>
+        <v>2588967374.067277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08999905834140953</v>
+        <v>0.07773801633729047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04266838625561457</v>
+        <v>0.04133415947192624</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3589636398.789589</v>
+        <v>3820492365.040687</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1900714190407544</v>
+        <v>0.1882961400233734</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02207089325082637</v>
+        <v>0.02728287074644906</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2285355963.402061</v>
+        <v>2072585488.413139</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1527289696179466</v>
+        <v>0.1809666525574088</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03594633705521871</v>
+        <v>0.0282913163905839</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5581732967.71407</v>
+        <v>5171351299.466022</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1907865619933893</v>
+        <v>0.2121389273838612</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03567441566156604</v>
+        <v>0.04626788080791248</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3219439142.258492</v>
+        <v>2976380785.660382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1618159235668203</v>
+        <v>0.117652019841608</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04761837534757173</v>
+        <v>0.03738621245243007</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2263271499.753303</v>
+        <v>2141254698.358827</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1821306236941095</v>
+        <v>0.1663078179122957</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05357257560080439</v>
+        <v>0.05318753670989445</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5075253501.301562</v>
+        <v>4825070509.613249</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07111709432684309</v>
+        <v>0.07494460313998604</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01950351716383271</v>
+        <v>0.02550117841713363</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3047940005.190102</v>
+        <v>2771587246.101971</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1461330210727974</v>
+        <v>0.1241800116447991</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03335062093353145</v>
+        <v>0.04138901888600938</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1150818736.133121</v>
+        <v>1475307659.534415</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08664157410371021</v>
+        <v>0.07586797576203677</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03614020894067926</v>
+        <v>0.04565748402845858</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2813760147.280722</v>
+        <v>2540511230.421278</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07197153319290032</v>
+        <v>0.1119734159681785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04757032887685757</v>
+        <v>0.03133947216833387</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4287190127.840324</v>
+        <v>3711840239.014074</v>
       </c>
       <c r="F17" t="n">
-        <v>0.130156107923189</v>
+        <v>0.1230101786612187</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03405710683124826</v>
+        <v>0.04549522547576499</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3406184483.320919</v>
+        <v>2634218250.641831</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1550172283052761</v>
+        <v>0.1591110779492279</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03190925138089337</v>
+        <v>0.02680348074140972</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>862781738.7127094</v>
+        <v>1320068162.688707</v>
       </c>
       <c r="F19" t="n">
-        <v>0.179526361831502</v>
+        <v>0.1570417952939531</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02639365586197101</v>
+        <v>0.01703405684771647</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2299310053.414115</v>
+        <v>2366691628.845377</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1381532524902447</v>
+        <v>0.1528120798171986</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02880836401139563</v>
+        <v>0.03135984398544092</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2568431689.66848</v>
+        <v>2138111407.013278</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08965081865636172</v>
+        <v>0.09179510662675983</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0325426430941162</v>
+        <v>0.03391362935860769</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3643908768.784561</v>
+        <v>2490058366.826068</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1305833625327457</v>
+        <v>0.08840303253489687</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05342654512815868</v>
+        <v>0.05342249272121082</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1379576194.27778</v>
+        <v>1032729333.347571</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1760771154489768</v>
+        <v>0.1701274870016726</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03709278334085316</v>
+        <v>0.04293172318104268</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3021662273.889354</v>
+        <v>2564164503.203181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1200836858397253</v>
+        <v>0.1163105826229469</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03338992970108701</v>
+        <v>0.03723741617845028</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1123408366.622744</v>
+        <v>1074545265.613496</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0918110203108833</v>
+        <v>0.09657521430048727</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02682658991272202</v>
+        <v>0.02452097620753505</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1365846765.150706</v>
+        <v>906777186.5075966</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09571610754773602</v>
+        <v>0.1240813284090117</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02776033196739899</v>
+        <v>0.03279535674987723</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3360109757.529855</v>
+        <v>3767649466.502131</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1141963993149684</v>
+        <v>0.1237084068062814</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02084081910885228</v>
+        <v>0.02476511919460563</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3044196104.372067</v>
+        <v>2892444066.546013</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1493987242179077</v>
+        <v>0.1312842923795353</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03431834660061792</v>
+        <v>0.03164825772897473</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5216241805.693491</v>
+        <v>5355526581.785379</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1373508041375611</v>
+        <v>0.1297007124190886</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04453826627225937</v>
+        <v>0.04008418161324568</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2185628250.942317</v>
+        <v>2381226107.657191</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09028636532533371</v>
+        <v>0.08828640025687623</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03708581337037518</v>
+        <v>0.03478984912671167</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1288580913.444865</v>
+        <v>1374896418.615613</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07181886915350624</v>
+        <v>0.09196142438761779</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04492801695866893</v>
+        <v>0.04065845869183681</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1185658224.725578</v>
+        <v>1772547869.723678</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1043142919776931</v>
+        <v>0.1180270382521121</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0292164440156427</v>
+        <v>0.03503921549541122</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2295029625.877805</v>
+        <v>3084355768.764484</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1953629341143384</v>
+        <v>0.2005321661477613</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04940974398649164</v>
+        <v>0.04512162866013944</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1331814525.40762</v>
+        <v>1380255401.546749</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09970874764904879</v>
+        <v>0.09760285234732279</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02586289206098187</v>
+        <v>0.02760359435139003</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1318540468.896984</v>
+        <v>918042016.0722921</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1047981699892157</v>
+        <v>0.07897760584070522</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04126250524934087</v>
+        <v>0.02966263999511695</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2077410645.726808</v>
+        <v>2367923433.131324</v>
       </c>
       <c r="F36" t="n">
-        <v>0.115045380556027</v>
+        <v>0.1418262486862808</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02132627451009422</v>
+        <v>0.01962879895857308</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2937187578.714921</v>
+        <v>2897466252.874966</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1079237446905004</v>
+        <v>0.1030547196867564</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03513951570959885</v>
+        <v>0.03434892097745451</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1429288156.434457</v>
+        <v>2061410495.656525</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09755598677573847</v>
+        <v>0.09308788071532725</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0371630705585957</v>
+        <v>0.02632585819123959</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2117490717.312054</v>
+        <v>1406480024.969221</v>
       </c>
       <c r="F39" t="n">
-        <v>0.167704972492474</v>
+        <v>0.1267586126041777</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02323503429164392</v>
+        <v>0.02460724260149928</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1709698409.695713</v>
+        <v>1753878890.361093</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1165240338943081</v>
+        <v>0.101537579287849</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0525259154572374</v>
+        <v>0.03738315145190543</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1903327847.542418</v>
+        <v>2441794906.060212</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1323166675642577</v>
+        <v>0.1155857946822683</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03894578882284658</v>
+        <v>0.03538038966213129</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3299497305.578947</v>
+        <v>3437965254.893593</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1140577888000958</v>
+        <v>0.08921959400788848</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03226880369522872</v>
+        <v>0.04068978266581146</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2241080472.17306</v>
+        <v>2022998788.087821</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1533338112257656</v>
+        <v>0.1824252870492484</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01589194921861312</v>
+        <v>0.02052874263607497</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1791364816.132616</v>
+        <v>1481816682.684536</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06950910056215744</v>
+        <v>0.08710238966652326</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02967778623096451</v>
+        <v>0.02708716965584995</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2469194861.00645</v>
+        <v>1897614663.033385</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1621066897544546</v>
+        <v>0.1790659640657748</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04258249565085011</v>
+        <v>0.05491683640067511</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4742733617.060844</v>
+        <v>4815861648.08823</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1785691650250785</v>
+        <v>0.176925202152703</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04125907846891279</v>
+        <v>0.05885170203693365</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5142088403.135442</v>
+        <v>3688199233.360696</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1726691830425064</v>
+        <v>0.1310365102793282</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03937190910545342</v>
+        <v>0.04343531475445989</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3517606916.596851</v>
+        <v>3398480556.156311</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09114428978056269</v>
+        <v>0.0973563571106512</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0249017206899309</v>
+        <v>0.02449085905749033</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1948243573.044106</v>
+        <v>1338034091.96</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1455592901239323</v>
+        <v>0.1752097495335471</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02838240341557867</v>
+        <v>0.0306255267447247</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2869336006.452913</v>
+        <v>2872233897.641622</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1450598297242618</v>
+        <v>0.1376294001838893</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05156620199340548</v>
+        <v>0.05295020777231532</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1290624753.739398</v>
+        <v>1392947867.813254</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1716363786719148</v>
+        <v>0.1742086397657906</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03704015371188129</v>
+        <v>0.03885102057164613</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4657690429.271374</v>
+        <v>4231694616.79427</v>
       </c>
       <c r="F52" t="n">
-        <v>0.106698769101782</v>
+        <v>0.09539875847603015</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0389297691958204</v>
+        <v>0.04032531424930936</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3496761668.034275</v>
+        <v>2858761283.128275</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1635929912021184</v>
+        <v>0.1597322575483024</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02276007910864834</v>
+        <v>0.03030862690872171</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4924565346.786737</v>
+        <v>3095821061.557894</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1576858111874377</v>
+        <v>0.1447255140675353</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04031557485000675</v>
+        <v>0.03343699011508887</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4292969602.234905</v>
+        <v>4005496136.209304</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1572818081679836</v>
+        <v>0.2179829632004598</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01963185550662963</v>
+        <v>0.0239123889611409</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1443133424.687609</v>
+        <v>1660858957.348545</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1640535506034048</v>
+        <v>0.09943361327178143</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05333146948278655</v>
+        <v>0.05194316529047392</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3051071691.291713</v>
+        <v>2927754947.27488</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1315990719489888</v>
+        <v>0.135206650476841</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02126125802110409</v>
+        <v>0.01789695938850885</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1786778630.463688</v>
+        <v>1655703085.870365</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1700286974759427</v>
+        <v>0.176984841708824</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03136466467970737</v>
+        <v>0.03150052730217873</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4374114011.446719</v>
+        <v>4507301448.777862</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08968375675354082</v>
+        <v>0.09983230303248238</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04939315210367008</v>
+        <v>0.04838114138243322</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2654724996.54314</v>
+        <v>2432856082.278031</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1945530468011879</v>
+        <v>0.1524341615306092</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02012862229589266</v>
+        <v>0.02115888223649784</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3132274866.107141</v>
+        <v>2990098978.558447</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1702750711140474</v>
+        <v>0.1469058468763839</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01996804924139935</v>
+        <v>0.02906097296225614</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1529822150.535561</v>
+        <v>1357409312.969896</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1346669547326005</v>
+        <v>0.1427879832655885</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04963648804937397</v>
+        <v>0.04434302670229434</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4044681584.652383</v>
+        <v>5075103516.128616</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09833288696456571</v>
+        <v>0.07581173949512267</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0292150729568271</v>
+        <v>0.02957838865265246</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4245627049.929982</v>
+        <v>4298452739.269897</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1802672561229176</v>
+        <v>0.1683989598826065</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02995881205576835</v>
+        <v>0.02456998203856246</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5565670182.9852</v>
+        <v>4784244077.143011</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1501935838203516</v>
+        <v>0.1672086479162551</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02247239489913934</v>
+        <v>0.02780919711885669</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5280616582.711987</v>
+        <v>3817776872.881815</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1282301652002877</v>
+        <v>0.1293538359798937</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0501812465468965</v>
+        <v>0.04523508816372505</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2898625270.721877</v>
+        <v>2401148808.203842</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09119204068136648</v>
+        <v>0.0994465370760574</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03199449494963445</v>
+        <v>0.03490952166440002</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5508010228.833065</v>
+        <v>3944875381.672767</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1574366231673938</v>
+        <v>0.1605513114714785</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04101372814760353</v>
+        <v>0.04622128981451838</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2044249627.683381</v>
+        <v>2214085835.349276</v>
       </c>
       <c r="F69" t="n">
-        <v>0.154159196227656</v>
+        <v>0.1406784090353896</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04683636849081071</v>
+        <v>0.04523793537454091</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2564772142.753257</v>
+        <v>3069586986.199261</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07818837184033291</v>
+        <v>0.08711483315368142</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04574903655974618</v>
+        <v>0.03822021057169787</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4857260674.412107</v>
+        <v>4836532819.96082</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1384770867559008</v>
+        <v>0.1632035621551111</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02712781540075542</v>
+        <v>0.02105257954051622</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1445452252.908477</v>
+        <v>1729046271.91175</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08983578300056887</v>
+        <v>0.07962403063027426</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04616256250991241</v>
+        <v>0.04166536807939755</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2416716790.424167</v>
+        <v>2693220325.636402</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09977118217863701</v>
+        <v>0.0989233199322732</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0385894391235029</v>
+        <v>0.04206110117337714</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2698061456.648697</v>
+        <v>3794232847.306604</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1728302982957389</v>
+        <v>0.1839558701815994</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02889716571189194</v>
+        <v>0.02765106671140841</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2377047684.677924</v>
+        <v>1992144681.149497</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1173770209751602</v>
+        <v>0.1310430010518822</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03395143415163839</v>
+        <v>0.02377368604442572</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5132693842.93296</v>
+        <v>3238685928.002571</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1123858528491128</v>
+        <v>0.09866754482513569</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03038332870320727</v>
+        <v>0.032288206127039</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1489046329.546378</v>
+        <v>1642514719.064358</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1354568256687396</v>
+        <v>0.1243860017072761</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02930331869922518</v>
+        <v>0.03001580950922262</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3424038706.328599</v>
+        <v>4682115539.009862</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1318565097368588</v>
+        <v>0.09866025833259044</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03743980518474019</v>
+        <v>0.04194612425219526</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1727531509.382877</v>
+        <v>1433534702.542011</v>
       </c>
       <c r="F79" t="n">
-        <v>0.169629219904204</v>
+        <v>0.1259145114643987</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04047918278202697</v>
+        <v>0.02759457386380432</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5205583215.352964</v>
+        <v>4176678761.816838</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1117635370123414</v>
+        <v>0.07772167751948444</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02932918953268845</v>
+        <v>0.03146902313555793</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3839365554.037355</v>
+        <v>4785045664.83642</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09750028557804152</v>
+        <v>0.1133808934739813</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0323760909893788</v>
+        <v>0.03121570176156385</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5146897797.981796</v>
+        <v>4152307307.523108</v>
       </c>
       <c r="F82" t="n">
-        <v>0.173740393822968</v>
+        <v>0.1367331362355898</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01861588820097464</v>
+        <v>0.0191403678325878</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2093599442.868208</v>
+        <v>1600130488.297739</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1520621589150331</v>
+        <v>0.1072392141624586</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0442149751007196</v>
+        <v>0.03851416371691356</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2581533199.917978</v>
+        <v>2216366333.059663</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1115746668180433</v>
+        <v>0.08564458126359775</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04048374203278641</v>
+        <v>0.05050952155239958</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3188691054.491402</v>
+        <v>3521116076.307683</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1624155225768689</v>
+        <v>0.1114591725968121</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04981807162302353</v>
+        <v>0.05498402707914272</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2578615928.102962</v>
+        <v>2568720387.708334</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1190842979538261</v>
+        <v>0.1046551178480116</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01777816406049154</v>
+        <v>0.02609027824705749</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1297177128.193192</v>
+        <v>969557368.685859</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1793840795787062</v>
+        <v>0.1368650168005476</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04150850732842218</v>
+        <v>0.02869669354970489</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3115399382.47287</v>
+        <v>2380602553.980272</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1100065321723128</v>
+        <v>0.1330392243541613</v>
       </c>
       <c r="G88" t="n">
-        <v>0.037195192240353</v>
+        <v>0.02638203775788382</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2375966568.846409</v>
+        <v>2905258823.190055</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1285683089933324</v>
+        <v>0.15580614020449</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02989046714381735</v>
+        <v>0.04047970195114232</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1500151177.705348</v>
+        <v>2027211911.554831</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1381286174405769</v>
+        <v>0.1056851486304096</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03907319021342599</v>
+        <v>0.04961172994252563</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1942540141.909515</v>
+        <v>1651067299.230293</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1629268892547747</v>
+        <v>0.1290097845355373</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05295277566208292</v>
+        <v>0.05343937907799289</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2000169647.231419</v>
+        <v>2238987249.230213</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09490561921349784</v>
+        <v>0.07430985555556439</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03808847010745382</v>
+        <v>0.0293699749008172</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4013199061.861996</v>
+        <v>4334714400.930764</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08720923352492395</v>
+        <v>0.09311711653767962</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0536008993370073</v>
+        <v>0.04061817098099747</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1824413793.118343</v>
+        <v>2299195891.758841</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1122738445202073</v>
+        <v>0.1633230520806257</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02861835319329282</v>
+        <v>0.02967190562539508</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2082301178.967658</v>
+        <v>2740837616.229152</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09636572236063896</v>
+        <v>0.1088612807200574</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04496462586742948</v>
+        <v>0.0371779348379989</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1926833526.085158</v>
+        <v>2256775416.137646</v>
       </c>
       <c r="F96" t="n">
-        <v>0.138007115760629</v>
+        <v>0.1030651449813095</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04094988436297089</v>
+        <v>0.04281248173285651</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4046412834.27667</v>
+        <v>4867343770.261527</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1600589290319112</v>
+        <v>0.1231601121552355</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02467442210028825</v>
+        <v>0.02419355630578481</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3252848067.337692</v>
+        <v>3486765789.213228</v>
       </c>
       <c r="F98" t="n">
-        <v>0.103384217758462</v>
+        <v>0.08021385194570256</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03091695971651297</v>
+        <v>0.02827395529839294</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2231057280.916186</v>
+        <v>3107715279.060806</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1026552895273757</v>
+        <v>0.1345583824219099</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02968288139486809</v>
+        <v>0.02446009663831424</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3009502488.299165</v>
+        <v>4273737675.82032</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1539792888257067</v>
+        <v>0.1202534212665756</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02709643536849641</v>
+        <v>0.02209580506329965</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2492915743.16651</v>
+        <v>2746812861.967762</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1923580994696259</v>
+        <v>0.1599477216141717</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04361847942292484</v>
+        <v>0.04885470712317551</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_361.xlsx
+++ b/output/fit_clients/fit_round_361.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1749867261.34184</v>
+        <v>1747479058.009485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1057465765540213</v>
+        <v>0.0959550449593107</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0291418430055374</v>
+        <v>0.03426413636803081</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1920933520.731786</v>
+        <v>1648491879.632698</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1434840081762166</v>
+        <v>0.1220320689887378</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04842620814733659</v>
+        <v>0.03096098089893551</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3976212808.52418</v>
+        <v>3523841369.788566</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1255807071770792</v>
+        <v>0.1110103522049246</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03254264195887743</v>
+        <v>0.02885523630571942</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>361</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3780410886.628715</v>
+        <v>3302421956.332741</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08708514609785253</v>
+        <v>0.08035910228969083</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04669865016859596</v>
+        <v>0.03329293366395067</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>144</v>
+      </c>
+      <c r="J5" t="n">
+        <v>361</v>
+      </c>
+      <c r="K5" t="n">
+        <v>69.14312613575304</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1929625621.844653</v>
+        <v>2765961778.605344</v>
       </c>
       <c r="F6" t="n">
-        <v>0.148846988698705</v>
+        <v>0.1335753085441963</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05553224387919312</v>
+        <v>0.03994994128908028</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2588967374.067277</v>
+        <v>2464083193.619947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07773801633729047</v>
+        <v>0.1005727546688225</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04133415947192624</v>
+        <v>0.03919656454424399</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3820492365.040687</v>
+        <v>2755978814.636746</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1882961400233734</v>
+        <v>0.1336786524945007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02728287074644906</v>
+        <v>0.0203004473770785</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2072585488.413139</v>
+        <v>2187131699.556303</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1809666525574088</v>
+        <v>0.1902090888097965</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0282913163905839</v>
+        <v>0.02260750477822015</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5171351299.466022</v>
+        <v>5497603488.953407</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2121389273838612</v>
+        <v>0.1403228721975356</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04626788080791248</v>
+        <v>0.04973070516583503</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>302</v>
+      </c>
+      <c r="J10" t="n">
+        <v>360</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59.79700387638886</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2976380785.660382</v>
+        <v>3359351797.409491</v>
       </c>
       <c r="F11" t="n">
-        <v>0.117652019841608</v>
+        <v>0.1890008029326392</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03738621245243007</v>
+        <v>0.03752255730087822</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>150</v>
+      </c>
+      <c r="J11" t="n">
+        <v>361</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2141254698.358827</v>
+        <v>2307304502.710655</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1663078179122957</v>
+        <v>0.1782371161165396</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05318753670989445</v>
+        <v>0.03834090024732045</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4825070509.613249</v>
+        <v>3959176571.407195</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07494460313998604</v>
+        <v>0.09118778954795236</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02550117841713363</v>
+        <v>0.02431632572232588</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>187</v>
+      </c>
+      <c r="J13" t="n">
+        <v>361</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2771587246.101971</v>
+        <v>3148264686.404272</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1241800116447991</v>
+        <v>0.1269367285991508</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04138901888600938</v>
+        <v>0.04062972808773641</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1475307659.534415</v>
+        <v>1685842175.017629</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07586797576203677</v>
+        <v>0.1092246674187128</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04565748402845858</v>
+        <v>0.04398997055674115</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2540511230.421278</v>
+        <v>2815448228.938143</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1119734159681785</v>
+        <v>0.07337144155319891</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03133947216833387</v>
+        <v>0.03780165121708643</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3711840239.014074</v>
+        <v>3656498264.811881</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1230101786612187</v>
+        <v>0.1117872634579792</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04549522547576499</v>
+        <v>0.04667692297032167</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>170</v>
+      </c>
+      <c r="J17" t="n">
+        <v>361</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2634218250.641831</v>
+        <v>2988115254.555079</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1591110779492279</v>
+        <v>0.1727821543150223</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02680348074140972</v>
+        <v>0.03194416244224389</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>356</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1320068162.688707</v>
+        <v>858863081.3208454</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1570417952939531</v>
+        <v>0.1456555921769691</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01703405684771647</v>
+        <v>0.01722159914425276</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2366691628.845377</v>
+        <v>1761908786.306195</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1528120798171986</v>
+        <v>0.0976235573236074</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03135984398544092</v>
+        <v>0.01960731064026713</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2138111407.013278</v>
+        <v>2582013193.222362</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09179510662675983</v>
+        <v>0.07214611116921116</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03391362935860769</v>
+        <v>0.03598206462434006</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2490058366.826068</v>
+        <v>3679674888.073993</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08840303253489687</v>
+        <v>0.1355211616019656</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05342249272121082</v>
+        <v>0.04250567073903307</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>98</v>
+      </c>
+      <c r="J22" t="n">
+        <v>361</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1032729333.347571</v>
+        <v>1554816723.492467</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1701274870016726</v>
+        <v>0.1191913962050487</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04293172318104268</v>
+        <v>0.03929967312277741</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2564164503.203181</v>
+        <v>3460323745.312698</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1163105826229469</v>
+        <v>0.1379455043064157</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03723741617845028</v>
+        <v>0.02503652262340931</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>110</v>
+      </c>
+      <c r="J24" t="n">
+        <v>361</v>
+      </c>
+      <c r="K24" t="n">
+        <v>62.59388984606836</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1074545265.613496</v>
+        <v>1300337869.667775</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09657521430048727</v>
+        <v>0.1189276562891854</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02452097620753505</v>
+        <v>0.02722183401500968</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>906777186.5075966</v>
+        <v>925536082.2684326</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1240813284090117</v>
+        <v>0.1160759705148737</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03279535674987723</v>
+        <v>0.03597147601134736</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3767649466.502131</v>
+        <v>2871304957.69431</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1237084068062814</v>
+        <v>0.1539015071492722</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02476511919460563</v>
+        <v>0.02494553639997956</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>151</v>
+      </c>
+      <c r="J27" t="n">
+        <v>359</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2892444066.546013</v>
+        <v>2514148285.799843</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1312842923795353</v>
+        <v>0.1499391962883828</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03164825772897473</v>
+        <v>0.03530422000369946</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1446,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5355526581.785379</v>
+        <v>4724201302.084728</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1297007124190886</v>
+        <v>0.09761139548540405</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04008418161324568</v>
+        <v>0.03086878923387458</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>318</v>
+      </c>
+      <c r="J29" t="n">
+        <v>361</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1487,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2381226107.657191</v>
+        <v>2402485800.894167</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08828640025687623</v>
+        <v>0.1128826546591412</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03478984912671167</v>
+        <v>0.02957151291703038</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1522,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1374896418.615613</v>
+        <v>1183566676.969023</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09196142438761779</v>
+        <v>0.08332175536754266</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04065845869183681</v>
+        <v>0.04037379158739297</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1772547869.723678</v>
+        <v>1231603486.302578</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1180270382521121</v>
+        <v>0.08523503783228899</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03503921549541122</v>
+        <v>0.02830393159504629</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1592,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3084355768.764484</v>
+        <v>2732542521.926856</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2005321661477613</v>
+        <v>0.1495705401716716</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04512162866013944</v>
+        <v>0.03746712560295699</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1380255401.546749</v>
+        <v>1182460921.569047</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09760285234732279</v>
+        <v>0.1165485799208239</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02760359435139003</v>
+        <v>0.02342885247107638</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1662,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>918042016.0722921</v>
+        <v>958653757.467559</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07897760584070522</v>
+        <v>0.08504027579932215</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02966263999511695</v>
+        <v>0.03033998476750369</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2367923433.131324</v>
+        <v>2891166851.870131</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1418262486862808</v>
+        <v>0.1416965445321871</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01962879895857308</v>
+        <v>0.02629050575481922</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2897466252.874966</v>
+        <v>2177595709.459185</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1030547196867564</v>
+        <v>0.110522808461334</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03434892097745451</v>
+        <v>0.03246123932408756</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2061410495.656525</v>
+        <v>1453619597.169356</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09308788071532725</v>
+        <v>0.1058108039071372</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02632585819123959</v>
+        <v>0.03373983218361103</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1802,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1406480024.969221</v>
+        <v>2000565456.53468</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1267586126041777</v>
+        <v>0.1177857644154754</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02460724260149928</v>
+        <v>0.03165094350124168</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1753878890.361093</v>
+        <v>1235698207.317549</v>
       </c>
       <c r="F40" t="n">
-        <v>0.101537579287849</v>
+        <v>0.1473227026758196</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03738315145190543</v>
+        <v>0.04842237554462154</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2441794906.060212</v>
+        <v>1876103623.757422</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1155857946822683</v>
+        <v>0.1008428254577093</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03538038966213129</v>
+        <v>0.02995972181891042</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3437965254.893593</v>
+        <v>3913616688.281511</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08921959400788848</v>
+        <v>0.09850694060121858</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04068978266581146</v>
+        <v>0.04130324549176628</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>159</v>
+      </c>
+      <c r="J42" t="n">
+        <v>361</v>
+      </c>
+      <c r="K42" t="n">
+        <v>67.29778364119777</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2022998788.087821</v>
+        <v>3067708223.647033</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1824252870492484</v>
+        <v>0.17098874128701</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02052874263607497</v>
+        <v>0.0253093159649736</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1979,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1481816682.684536</v>
+        <v>1659933132.811157</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08710238966652326</v>
+        <v>0.1003617871128995</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02708716965584995</v>
+        <v>0.02343371871371155</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1897614663.033385</v>
+        <v>2471687589.169509</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1790659640657748</v>
+        <v>0.1451202588848312</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05491683640067511</v>
+        <v>0.04389313759096174</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4815861648.08823</v>
+        <v>3704622238.030118</v>
       </c>
       <c r="F46" t="n">
-        <v>0.176925202152703</v>
+        <v>0.1237250560361454</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05885170203693365</v>
+        <v>0.05197034174903292</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>216</v>
+      </c>
+      <c r="J46" t="n">
+        <v>361</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2078,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3688199233.360696</v>
+        <v>4803636250.0871</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1310365102793282</v>
+        <v>0.1595016733928358</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04343531475445989</v>
+        <v>0.04242029905849145</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>161</v>
+      </c>
+      <c r="J47" t="n">
+        <v>361</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2113,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3398480556.156311</v>
+        <v>3042037219.682441</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0973563571106512</v>
+        <v>0.08762337292115008</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02449085905749033</v>
+        <v>0.03525367852763821</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>184</v>
+      </c>
+      <c r="J48" t="n">
+        <v>359</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2154,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1338034091.96</v>
+        <v>1274000676.563953</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1752097495335471</v>
+        <v>0.1710411472558575</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0306255267447247</v>
+        <v>0.04257087748297098</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2189,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2872233897.641622</v>
+        <v>3307631033.782096</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1376294001838893</v>
+        <v>0.1283701786151397</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05295020777231532</v>
+        <v>0.04551112114402642</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>120</v>
+      </c>
+      <c r="J50" t="n">
+        <v>360</v>
+      </c>
+      <c r="K50" t="n">
+        <v>60.04582404775282</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1392947867.813254</v>
+        <v>1345567752.333887</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1742086397657906</v>
+        <v>0.1776661310363837</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03885102057164613</v>
+        <v>0.03435275006981224</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2255,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4231694616.79427</v>
+        <v>4594663631.533849</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09539875847603015</v>
+        <v>0.1076267230269097</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04032531424930936</v>
+        <v>0.05277125034035951</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>214</v>
+      </c>
+      <c r="J52" t="n">
+        <v>360</v>
+      </c>
+      <c r="K52" t="n">
+        <v>60.19507863446557</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2858761283.128275</v>
+        <v>3000147931.332887</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1597322575483024</v>
+        <v>0.1893842419729087</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03030862690872171</v>
+        <v>0.0262831574735162</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3095821061.557894</v>
+        <v>4804932733.077349</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1447255140675353</v>
+        <v>0.1667738512034483</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03343699011508887</v>
+        <v>0.0386050977171801</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>191</v>
+      </c>
+      <c r="J54" t="n">
+        <v>361</v>
+      </c>
+      <c r="K54" t="n">
+        <v>63.44295204715895</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4005496136.209304</v>
+        <v>3332007601.805007</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2179829632004598</v>
+        <v>0.1850746942928251</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0239123889611409</v>
+        <v>0.02745147760617219</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>173</v>
+      </c>
+      <c r="J55" t="n">
+        <v>360</v>
+      </c>
+      <c r="K55" t="n">
+        <v>56.95967901495663</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1660858957.348545</v>
+        <v>1796762992.123367</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09943361327178143</v>
+        <v>0.1314255980707341</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05194316529047392</v>
+        <v>0.04515119709762455</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2927754947.27488</v>
+        <v>2993135859.019702</v>
       </c>
       <c r="F57" t="n">
-        <v>0.135206650476841</v>
+        <v>0.1140502344691263</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01789695938850885</v>
+        <v>0.01839834012761912</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>150</v>
+      </c>
+      <c r="J57" t="n">
+        <v>360</v>
+      </c>
+      <c r="K57" t="n">
+        <v>47.33007088295557</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1655703085.870365</v>
+        <v>1693201761.225076</v>
       </c>
       <c r="F58" t="n">
-        <v>0.176984841708824</v>
+        <v>0.1961984304265057</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03150052730217873</v>
+        <v>0.03984049620804623</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4507301448.777862</v>
+        <v>4610577749.629483</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09983230303248238</v>
+        <v>0.1097123973839431</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04838114138243322</v>
+        <v>0.03945277608331287</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>175</v>
+      </c>
+      <c r="J59" t="n">
+        <v>360</v>
+      </c>
+      <c r="K59" t="n">
+        <v>61.18937271741108</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2432856082.278031</v>
+        <v>2861549054.448546</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1524341615306092</v>
+        <v>0.1997051690646473</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02115888223649784</v>
+        <v>0.02765628700646387</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>64</v>
+      </c>
+      <c r="J60" t="n">
+        <v>359</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2990098978.558447</v>
+        <v>3029467553.098823</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1469058468763839</v>
+        <v>0.133636241044584</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02906097296225614</v>
+        <v>0.03190606964382142</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1357409312.969896</v>
+        <v>2123923434.316882</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1427879832655885</v>
+        <v>0.1232932036589668</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04434302670229434</v>
+        <v>0.03015499116741218</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5075103516.128616</v>
+        <v>3969934000.721482</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07581173949512267</v>
+        <v>0.07984935547550144</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02957838865265246</v>
+        <v>0.03777262876157939</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>177</v>
+      </c>
+      <c r="J63" t="n">
+        <v>361</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4298452739.269897</v>
+        <v>3661891142.350914</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1683989598826065</v>
+        <v>0.1862770618137062</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02456998203856246</v>
+        <v>0.02342917450904215</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>179</v>
+      </c>
+      <c r="J64" t="n">
+        <v>360</v>
+      </c>
+      <c r="K64" t="n">
+        <v>59.49871700279844</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2728,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4784244077.143011</v>
+        <v>4290937545.899436</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1672086479162551</v>
+        <v>0.1672150545227443</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02780919711885669</v>
+        <v>0.0303071416701203</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>275</v>
+      </c>
+      <c r="J65" t="n">
+        <v>361</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2763,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3817776872.881815</v>
+        <v>5004636917.782299</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1293538359798937</v>
+        <v>0.1098910011323954</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04523508816372505</v>
+        <v>0.03681900088575855</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>178</v>
+      </c>
+      <c r="J66" t="n">
+        <v>361</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2401148808.203842</v>
+        <v>2365095622.711647</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0994465370760574</v>
+        <v>0.06438483393067751</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03490952166440002</v>
+        <v>0.03147070856859749</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2833,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3944875381.672767</v>
+        <v>4887394360.154037</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1605513114714785</v>
+        <v>0.15988689913983</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04622128981451838</v>
+        <v>0.05091806002471102</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>196</v>
+      </c>
+      <c r="J68" t="n">
+        <v>360</v>
+      </c>
+      <c r="K68" t="n">
+        <v>60.29391500443352</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2214085835.349276</v>
+        <v>1651849777.559095</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1406784090353896</v>
+        <v>0.1514600727979237</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04523793537454091</v>
+        <v>0.04945802675105784</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3069586986.199261</v>
+        <v>3229133735.397604</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08711483315368142</v>
+        <v>0.07810075980689203</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03822021057169787</v>
+        <v>0.04245244229225244</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4836532819.96082</v>
+        <v>3433785076.715364</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1632035621551111</v>
+        <v>0.1334506874795302</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02105257954051622</v>
+        <v>0.03206207393427713</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>261</v>
+      </c>
+      <c r="J71" t="n">
+        <v>361</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1729046271.91175</v>
+        <v>2039743419.831821</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07962403063027426</v>
+        <v>0.08107409379414883</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04166536807939755</v>
+        <v>0.05207326798149415</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2693220325.636402</v>
+        <v>2390469263.534614</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0989233199322732</v>
+        <v>0.07453525078060255</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04206110117337714</v>
+        <v>0.03667393026103513</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3794232847.306604</v>
+        <v>3473558500.974823</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1839558701815994</v>
+        <v>0.1420449982227456</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02765106671140841</v>
+        <v>0.02682808734161257</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>101</v>
+      </c>
+      <c r="J74" t="n">
+        <v>361</v>
+      </c>
+      <c r="K74" t="n">
+        <v>71.6404730993647</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1992144681.149497</v>
+        <v>2452525206.980979</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1310430010518822</v>
+        <v>0.1591932915232028</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02377368604442572</v>
+        <v>0.02343145454647882</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3238685928.002571</v>
+        <v>3874319821.407315</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09866754482513569</v>
+        <v>0.1062998331578814</v>
       </c>
       <c r="G76" t="n">
-        <v>0.032288206127039</v>
+        <v>0.02902337816342685</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>171</v>
+      </c>
+      <c r="J76" t="n">
+        <v>360</v>
+      </c>
+      <c r="K76" t="n">
+        <v>59.13218605537721</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1642514719.064358</v>
+        <v>1956222560.32534</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1243860017072761</v>
+        <v>0.1657688948040547</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03001580950922262</v>
+        <v>0.0205779199025119</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4682115539.009862</v>
+        <v>3881122772.305837</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09866025833259044</v>
+        <v>0.1125876917048674</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04194612425219526</v>
+        <v>0.04555874786338292</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>180</v>
+      </c>
+      <c r="J78" t="n">
+        <v>360</v>
+      </c>
+      <c r="K78" t="n">
+        <v>60.04579820473575</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1433534702.542011</v>
+        <v>1235209446.67872</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1259145114643987</v>
+        <v>0.1648896996947209</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02759457386380432</v>
+        <v>0.04014394650521152</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4176678761.816838</v>
+        <v>4970541468.716377</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07772167751948444</v>
+        <v>0.08229816852600598</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03146902313555793</v>
+        <v>0.02791151851291137</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>176</v>
+      </c>
+      <c r="J80" t="n">
+        <v>361</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4785045664.83642</v>
+        <v>3283262358.04302</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1133808934739813</v>
+        <v>0.1304782797821879</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03121570176156385</v>
+        <v>0.02757038526828067</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>167</v>
+      </c>
+      <c r="J81" t="n">
+        <v>360</v>
+      </c>
+      <c r="K81" t="n">
+        <v>51.02146488076483</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4152307307.523108</v>
+        <v>5048514512.476098</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1367331362355898</v>
+        <v>0.1567822036001875</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0191403678325878</v>
+        <v>0.02718750824652506</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>254</v>
+      </c>
+      <c r="J82" t="n">
+        <v>360</v>
+      </c>
+      <c r="K82" t="n">
+        <v>58.15885566617735</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1600130488.297739</v>
+        <v>2135794780.697106</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1072392141624586</v>
+        <v>0.1184970865075421</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03851416371691356</v>
+        <v>0.03190923224448673</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2216366333.059663</v>
+        <v>1965866451.000762</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08564458126359775</v>
+        <v>0.07461418531811272</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05050952155239958</v>
+        <v>0.05165425583026746</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3521116076.307683</v>
+        <v>3168904565.497651</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1114591725968121</v>
+        <v>0.1774549402396808</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05498402707914272</v>
+        <v>0.05101057177934588</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2568720387.708334</v>
+        <v>2046624419.694137</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1046551178480116</v>
+        <v>0.1233186760894636</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02609027824705749</v>
+        <v>0.01931656176629163</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>969557368.685859</v>
+        <v>1189828843.242334</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1368650168005476</v>
+        <v>0.1759359566345019</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02869669354970489</v>
+        <v>0.02960150092552154</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2380602553.980272</v>
+        <v>2338350958.235948</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1330392243541613</v>
+        <v>0.1191929671709862</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02638203775788382</v>
+        <v>0.0348833787579218</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2905258823.190055</v>
+        <v>2415308553.814718</v>
       </c>
       <c r="F89" t="n">
-        <v>0.15580614020449</v>
+        <v>0.147969041067412</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04047970195114232</v>
+        <v>0.02651144740957221</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2027211911.554831</v>
+        <v>2067757348.897146</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1056851486304096</v>
+        <v>0.1147590966198224</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04961172994252563</v>
+        <v>0.03594026848742886</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1651067299.230293</v>
+        <v>1497684478.608798</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1290097845355373</v>
+        <v>0.1716540009067491</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05343937907799289</v>
+        <v>0.04934586378225574</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2238987249.230213</v>
+        <v>2677852335.732526</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07430985555556439</v>
+        <v>0.08475361774921297</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0293699749008172</v>
+        <v>0.03704200964503099</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4334714400.930764</v>
+        <v>3272039265.626615</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09311711653767962</v>
+        <v>0.1247456390725348</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04061817098099747</v>
+        <v>0.03655964950170682</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>169</v>
+      </c>
+      <c r="J93" t="n">
+        <v>360</v>
+      </c>
+      <c r="K93" t="n">
+        <v>50.86845607993381</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2299195891.758841</v>
+        <v>2261258159.89664</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1633230520806257</v>
+        <v>0.1339597516258623</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02967190562539508</v>
+        <v>0.026633081594855</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2740837616.229152</v>
+        <v>2711130279.753071</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1088612807200574</v>
+        <v>0.1024416178067856</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0371779348379989</v>
+        <v>0.0409827880019226</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2256775416.137646</v>
+        <v>2250428890.970077</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1030651449813095</v>
+        <v>0.1035571857485013</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04281248173285651</v>
+        <v>0.03077186596866302</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4867343770.261527</v>
+        <v>4334349069.493217</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1231601121552355</v>
+        <v>0.1368002896342229</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02419355630578481</v>
+        <v>0.02431634982594692</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>185</v>
+      </c>
+      <c r="J97" t="n">
+        <v>361</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3486765789.213228</v>
+        <v>3200302155.902234</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08021385194570256</v>
+        <v>0.1228869301013606</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02827395529839294</v>
+        <v>0.02412618065987373</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>89</v>
+      </c>
+      <c r="J98" t="n">
+        <v>360</v>
+      </c>
+      <c r="K98" t="n">
+        <v>56.97824600335152</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3107715279.060806</v>
+        <v>3025627361.14368</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1345583824219099</v>
+        <v>0.1007649644322979</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02446009663831424</v>
+        <v>0.02823798882587284</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4273737675.82032</v>
+        <v>3509876312.168191</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1202534212665756</v>
+        <v>0.1344041039943941</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02209580506329965</v>
+        <v>0.0243760600305854</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>163</v>
+      </c>
+      <c r="J100" t="n">
+        <v>360</v>
+      </c>
+      <c r="K100" t="n">
+        <v>62.36857188065582</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2746812861.967762</v>
+        <v>2973324803.158661</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1599477216141717</v>
+        <v>0.1963034882965879</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04885470712317551</v>
+        <v>0.05659758665746367</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
